--- a/Project Car-Wash 805/Berita Acara Penyelesaian - CarWash.xlsx
+++ b/Project Car-Wash 805/Berita Acara Penyelesaian - CarWash.xlsx
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">Berita Acara Penyelesaian</t>
   </si>
   <si>
-    <t xml:space="preserve">Perjanjian Kerjasama  Car Wash – 805 dan PT Multi Visi Paragon</t>
+    <t xml:space="preserve">Catatan Kerjasama  Car Wash – 805 dan PT Multi Visi Paragon tanggal …</t>
   </si>
   <si>
     <t xml:space="preserve">Features</t>
@@ -51,7 +51,13 @@
     <t xml:space="preserve">Level Akses Super Admin</t>
   </si>
   <si>
+    <t xml:space="preserve">Try ro use Check Box</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manajemen User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Superadmin berhasil buat User Baru dengan mengisi field Nama Lengkap, Alamat Email, Username (nama user untuk login), password, dan memberikan Level Akses terahadap user yang sedang di buat.</t>
   </si>
   <si>
     <t xml:space="preserve">Manajemen Store</t>
@@ -754,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7:F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -820,22 +826,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="0"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="0"/>
@@ -844,7 +854,7 @@
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="0"/>
@@ -853,18 +863,18 @@
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="0"/>
       <c r="E9" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="0"/>
@@ -873,7 +883,7 @@
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="0"/>
@@ -882,7 +892,7 @@
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="0"/>
@@ -891,7 +901,7 @@
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="0"/>
@@ -900,7 +910,7 @@
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="0"/>
@@ -909,7 +919,7 @@
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
@@ -918,7 +928,7 @@
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
@@ -927,7 +937,7 @@
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="22"/>
@@ -936,18 +946,18 @@
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="25"/>
@@ -956,7 +966,7 @@
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="25"/>
@@ -965,7 +975,7 @@
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="25"/>
@@ -974,7 +984,7 @@
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="27"/>
@@ -983,7 +993,7 @@
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
@@ -992,18 +1002,18 @@
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="25"/>
       <c r="E24" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="25"/>
@@ -1012,7 +1022,7 @@
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="25"/>
@@ -1021,7 +1031,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="25"/>
@@ -1030,7 +1040,7 @@
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="25"/>
@@ -1039,7 +1049,7 @@
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="25"/>
@@ -1048,18 +1058,18 @@
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
       <c r="E30" s="36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="14"/>
@@ -1068,7 +1078,7 @@
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="22"/>
@@ -1077,18 +1087,18 @@
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="25"/>
       <c r="E33" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="25"/>
@@ -1097,7 +1107,7 @@
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="25"/>
@@ -1106,7 +1116,7 @@
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
@@ -1123,10 +1133,10 @@
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F38" s="0"/>
     </row>
@@ -1145,10 +1155,10 @@
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="44"/>
       <c r="C41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
